--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="394">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Appointment</t>
+    <t>http://hl7.no/fhir/structuredefinition/no-basis-Appointment</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T12:27:31+00:00</t>
+    <t>2021-11-24T13:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Base profile for Norwegian Appointment information. Defined by HL7 Norway. This profile identifies a set of minimum expectations for an Appointment resource when creating, searching and retrieving compositions by defining which coding system(s) must be present when using this profile. The basis profile is open, but derived profiles should close down the information elements according to specification relevant to the use-case.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -433,123 +436,54 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-Appointment/Group}
+    <t>postponementReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://example.org/fhir/structuredefinition/postponementreason}
 </t>
   </si>
   <si>
-    <t>The appointment is a group session.</t>
-  </si>
-  <si>
-    <t>postponementReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://example.org/fhir/StructureDefinition/PostponementReason}
-</t>
-  </si>
-  <si>
-    <t>The reason code for delaying.</t>
+    <t>The reason code for the postponement</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Appointment.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Appointment.extension.extension</t>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/group}
+</t>
+  </si>
+  <si>
+    <t>The appointment is a group session</t>
+  </si>
+  <si>
+    <t>partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/partof}
+</t>
+  </si>
+  <si>
+    <t>A larger appointment of which this particular appointment is a component or step.</t>
+  </si>
+  <si>
+    <t>conferenceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/conferencetype}
+</t>
+  </si>
+  <si>
+    <t>Appointment.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Appointment.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>https://example.org/fhir/StructureDefinition/PostponementReason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Appointment.extension.value[x]</t>
-  </si>
-  <si>
-    <t>The reason for postponing the appointment</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8446</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-Appointment/PartOf}
-</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Appointment/PartOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Appointment)
-</t>
-  </si>
-  <si>
-    <t>Appoinment partOf structure.</t>
-  </si>
-  <si>
-    <t>A larger appointment of which this particular appointment is a component or step.</t>
-  </si>
-  <si>
-    <t>Appointment.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -557,6 +491,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -604,6 +541,9 @@
 This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The free/busy status of an appointment.</t>
   </si>
   <si>
@@ -644,6 +584,9 @@
     <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Appointment.serviceCategory</t>
   </si>
   <si>
@@ -722,7 +665,28 @@
     <t>Appointment.appointmentType.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Appointment.appointmentType.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Appointment.appointmentType.coding</t>
@@ -1503,66 +1467,68 @@
       <c r="A11" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1625,6568 +1591,5780 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C13" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>73</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>73</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>73</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AB31" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>239</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>289</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>73</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>341</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>313</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>322</v>
+        <v>182</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>324</v>
+        <v>129</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>287</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>343</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>344</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>73</v>
+        <v>375</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>350</v>
+        <v>104</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>379</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>380</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>143</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>144</v>
+        <v>387</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>145</v>
+        <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>128</v>
+        <v>385</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>149</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>151</v>
+        <v>391</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>153</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>146</v>
+        <v>392</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK56" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:32:15+00:00</t>
+    <t>2021-11-25T06:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T06:07:33+00:00</t>
+    <t>2021-11-25T07:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/structuredefinition/no-basis-Appointment</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Appointment</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T07:05:56+00:00</t>
+    <t>2021-11-25T08:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,54 +436,129 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>postponementReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://example.org/fhir/structuredefinition/postponementreason}
+    <t>conferenceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-conferencetype}
 </t>
-  </si>
-  <si>
-    <t>The reason code for the postponement</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/group}
-</t>
-  </si>
-  <si>
-    <t>The appointment is a group session</t>
-  </si>
-  <si>
-    <t>partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/partof}
-</t>
-  </si>
-  <si>
-    <t>A larger appointment of which this particular appointment is a component or step.</t>
-  </si>
-  <si>
-    <t>conferenceType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/conferencetype}
-</t>
-  </si>
-  <si>
-    <t>Appointment.modifierExtension</t>
+    <t>Appointment.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Appointment.extension.extension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Appointment.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/structuredefinition/no-basis-conferencetype</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Appointment.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Conference type</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Norwegian valueset conference type</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ValueSet/no-basis-conference-type</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/no-basis-group}
+</t>
+  </si>
+  <si>
+    <t>The appointment is a group session</t>
+  </si>
+  <si>
+    <t>partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/no-basis-partof}
+</t>
+  </si>
+  <si>
+    <t>Appoinment partOf structure.</t>
+  </si>
+  <si>
+    <t>A larger appointment of which this particular appointment is a component or step.</t>
+  </si>
+  <si>
+    <t>postponementReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://example.org/fhir/structuredefinition/no-basis-postponementreason}
+</t>
+  </si>
+  <si>
+    <t>The reason code for the postponement</t>
+  </si>
+  <si>
+    <t>Appointment.modifierExtension</t>
+  </si>
+  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -491,9 +566,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -584,9 +656,6 @@
     <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Appointment.serviceCategory</t>
   </si>
   <si>
@@ -665,28 +734,7 @@
     <t>Appointment.appointmentType.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Appointment.appointmentType.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Appointment.appointmentType.coding</t>
@@ -728,9 +776,6 @@
   </si>
   <si>
     <t>Volven 8406</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Volven</t>
@@ -1538,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN51"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2648,7 +2693,7 @@
         <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2708,7 +2753,7 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>135</v>
@@ -2731,11 +2776,9 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2756,13 +2799,13 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2813,25 +2856,25 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2845,20 +2888,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2870,15 +2911,17 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -2915,19 +2958,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2936,7 +2979,7 @@
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>135</v>
@@ -2945,7 +2988,7 @@
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2959,17 +3002,15 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>84</v>
@@ -2984,22 +3025,24 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -3041,25 +3084,25 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3073,43 +3116,39 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3133,13 +3172,13 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -3157,19 +3196,19 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
@@ -3189,9 +3228,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
@@ -3200,7 +3241,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -3209,16 +3250,16 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3269,7 +3310,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3278,38 +3319,40 @@
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>84</v>
@@ -3318,23 +3361,21 @@
         <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3359,13 +3400,13 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -3383,41 +3424,43 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3435,16 +3478,16 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3471,11 +3514,13 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3493,25 +3538,25 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -3525,11 +3570,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3542,22 +3587,26 @@
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3581,11 +3630,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3603,7 +3654,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3615,16 +3666,16 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3635,7 +3686,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3658,17 +3709,15 @@
         <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3693,11 +3742,13 @@
         <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>74</v>
@@ -3715,7 +3766,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3730,24 +3781,24 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3755,30 +3806,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3803,11 +3856,13 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
@@ -3825,13 +3880,13 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3840,24 +3895,24 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3880,7 +3935,7 @@
         <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>202</v>
@@ -3913,11 +3968,11 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3935,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3953,21 +4008,21 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3978,7 +4033,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -3987,16 +4042,16 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4023,13 +4078,11 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -4047,28 +4100,28 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4083,7 +4136,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4099,10 +4152,10 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>213</v>
@@ -4111,7 +4164,7 @@
         <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4137,31 +4190,29 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4173,13 +4224,13 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4193,7 +4244,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4216,7 +4267,7 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>219</v>
@@ -4224,12 +4275,8 @@
       <c r="L24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4253,29 +4300,29 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4293,25 +4340,23 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4332,20 +4377,16 @@
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4369,13 +4410,11 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4393,13 +4432,13 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4411,25 +4450,23 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4447,23 +4484,19 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>218</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4487,13 +4520,13 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4511,25 +4544,25 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4538,25 +4571,23 @@
         <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>227</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4565,23 +4596,21 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4605,31 +4634,31 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4641,13 +4670,13 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4656,12 +4685,12 @@
         <v>74</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>227</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4672,7 +4701,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4684,19 +4713,19 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4733,25 +4762,23 @@
         <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4763,7 +4790,7 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4772,14 +4799,16 @@
         <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4788,7 +4817,7 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4800,16 +4829,20 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4833,13 +4866,13 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4857,7 +4890,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4872,10 +4905,10 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4884,14 +4917,16 @@
         <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4900,7 +4935,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4909,19 +4944,23 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4945,13 +4984,13 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4969,7 +5008,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4984,10 +5023,10 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4996,14 +5035,16 @@
         <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5021,21 +5062,23 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5059,13 +5102,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -5083,13 +5126,13 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -5098,24 +5141,24 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5135,19 +5178,23 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5195,7 +5242,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5213,21 +5260,21 @@
         <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5247,16 +5294,16 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5283,13 +5330,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5307,7 +5354,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5322,24 +5369,24 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5350,7 +5397,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -5359,16 +5406,16 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5419,13 +5466,13 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -5434,24 +5481,24 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5471,18 +5518,20 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5531,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5546,24 +5595,24 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5586,13 +5635,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5643,7 +5692,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5658,24 +5707,24 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5698,13 +5747,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5755,7 +5804,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5770,16 +5819,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5787,7 +5836,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5807,20 +5856,18 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5869,7 +5916,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5884,24 +5931,24 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5921,20 +5968,18 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -5983,7 +6028,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5998,24 +6043,24 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>275</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6038,13 +6083,13 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6095,7 +6140,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6110,28 +6155,28 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>275</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6150,13 +6195,13 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6207,7 +6252,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6222,10 +6267,10 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6239,7 +6284,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6247,11 +6292,11 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6262,15 +6307,17 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6319,39 +6366,39 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>341</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>345</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6377,12 +6424,14 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6431,7 +6480,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>211</v>
+        <v>334</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6443,38 +6492,38 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -6486,17 +6535,15 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>213</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6545,43 +6592,43 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6594,26 +6641,22 @@
         <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6661,7 +6704,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6673,13 +6716,13 @@
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>127</v>
+        <v>351</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6693,7 +6736,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6701,7 +6744,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>76</v>
@@ -6713,10 +6756,10 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>177</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>354</v>
@@ -6724,9 +6767,7 @@
       <c r="L46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>356</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6751,13 +6792,13 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6775,10 +6816,10 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6787,16 +6828,16 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>356</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6827,16 +6868,16 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>362</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>141</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6887,7 +6928,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>142</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6899,38 +6940,38 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>365</v>
+        <v>143</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6939,18 +6980,20 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>146</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6975,13 +7018,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>373</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6999,28 +7042,28 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>150</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>374</v>
+        <v>143</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7031,39 +7074,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7087,13 +7134,13 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -7111,39 +7158,39 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>127</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>382</v>
+        <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>383</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7154,7 +7201,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -7163,18 +7210,20 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>385</v>
+        <v>201</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7199,13 +7248,13 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -7223,13 +7272,13 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
@@ -7241,21 +7290,21 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>74</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7266,7 +7315,7 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>74</v>
@@ -7275,20 +7324,18 @@
         <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7337,13 +7384,13 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
@@ -7352,19 +7399,469 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN51" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>393</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T08:52:25+00:00</t>
+    <t>2021-11-25T21:16:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T21:16:57+00:00</t>
+    <t>2021-12-15T08:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -412,329 +412,237 @@
     <t>Appointment.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Appointment.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Appointment.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this item</t>
+  </si>
+  <si>
+    <t>This records identifiers associated with this appointment concern that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>SCH-1, SCH-2, ARQ-1, ARQ-2</t>
+  </si>
+  <si>
+    <t>Appointment.status</t>
+  </si>
+  <si>
+    <t>proposed | pending | booked | arrived | fulfilled | cancelled | noshow | entered-in-error | checked-in | waitlist</t>
+  </si>
+  <si>
+    <t>The overall status of the Appointment. Each of the participants has their own participation status which indicates their involvement in the process, however this status indicates the shared status.</t>
+  </si>
+  <si>
+    <t>If the Appointment's status is "cancelled" then all participants are expected to have their calendars released for the appointment period, and as such any Slots that were marked as BUSY can be re-set to FREE.
+This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The free/busy status of an appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/appointmentstatus|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>SCH-25</t>
+  </si>
+  <si>
+    <t>Appointment.cancelationReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The coded reason for the appointment being cancelled</t>
+  </si>
+  <si>
+    <t>The coded reason for the appointment being cancelled. This is often used in reporting/billing/futher processing to determine if further actions are required, or specific fees apply.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Appointment.serviceCategory</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+  </si>
+  <si>
+    <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
+  </si>
+  <si>
+    <t>CATEGORIES</t>
+  </si>
+  <si>
+    <t>Appointment.serviceType</t>
+  </si>
+  <si>
+    <t>The specific service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>The specific service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>Appointment.specialty</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
+    <t>.performer.AssignedPerson.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType</t>
+  </si>
+  <si>
+    <t>The style of appointment or patient that has been booked in the slot (not service type)</t>
+  </si>
+  <si>
+    <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>ARQ-7</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>conferenceType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-conferencetype}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Appointment.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Appointment.extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Appointment.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/structuredefinition/no-basis-conferencetype</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Appointment.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Conference type</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Norwegian valueset conference type</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ValueSet/no-basis-conference-type</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/no-basis-group}
-</t>
-  </si>
-  <si>
-    <t>The appointment is a group session</t>
-  </si>
-  <si>
-    <t>partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointment/no-basis-partof}
-</t>
-  </si>
-  <si>
-    <t>Appoinment partOf structure.</t>
-  </si>
-  <si>
-    <t>A larger appointment of which this particular appointment is a component or step.</t>
-  </si>
-  <si>
-    <t>postponementReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://example.org/fhir/structuredefinition/no-basis-postponementreason}
-</t>
-  </si>
-  <si>
-    <t>The reason code for the postponement</t>
-  </si>
-  <si>
-    <t>Appointment.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Appointment.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Ids for this item</t>
-  </si>
-  <si>
-    <t>This records identifiers associated with this appointment concern that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>SCH-1, SCH-2, ARQ-1, ARQ-2</t>
-  </si>
-  <si>
-    <t>Appointment.status</t>
-  </si>
-  <si>
-    <t>proposed | pending | booked | arrived | fulfilled | cancelled | noshow | entered-in-error | checked-in | waitlist</t>
-  </si>
-  <si>
-    <t>The overall status of the Appointment. Each of the participants has their own participation status which indicates their involvement in the process, however this status indicates the shared status.</t>
-  </si>
-  <si>
-    <t>If the Appointment's status is "cancelled" then all participants are expected to have their calendars released for the appointment period, and as such any Slots that were marked as BUSY can be re-set to FREE.
-This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The free/busy status of an appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/appointmentstatus|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>SCH-25</t>
-  </si>
-  <si>
-    <t>Appointment.cancelationReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The coded reason for the appointment being cancelled</t>
-  </si>
-  <si>
-    <t>The coded reason for the appointment being cancelled. This is often used in reporting/billing/futher processing to determine if further actions are required, or specific fees apply.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
-  </si>
-  <si>
-    <t>Appointment.serviceCategory</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
-  </si>
-  <si>
-    <t>CATEGORIES</t>
-  </si>
-  <si>
-    <t>Appointment.serviceType</t>
-  </si>
-  <si>
-    <t>The specific service that is to be performed during this appointment</t>
-  </si>
-  <si>
-    <t>The specific service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>Appointment.specialty</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
-    <t>.performer.AssignedPerson.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType</t>
-  </si>
-  <si>
-    <t>The style of appointment or patient that has been booked in the slot (not service type)</t>
-  </si>
-  <si>
-    <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>CLASSIFICATION</t>
-  </si>
-  <si>
-    <t>ARQ-7</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.id</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.extension</t>
   </si>
   <si>
     <t>Appointment.appointmentType.coding</t>
@@ -776,6 +684,9 @@
   </si>
   <si>
     <t>Volven 8406</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>Volven</t>
@@ -1583,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1593,7 +1504,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.66796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2556,7 +2467,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2575,15 +2486,17 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>74</v>
@@ -2620,14 +2533,16 @@
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>134</v>
@@ -2648,7 +2563,7 @@
         <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2662,41 +2577,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>136</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2744,7 +2661,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2753,7 +2670,7 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>135</v>
@@ -2762,7 +2679,7 @@
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2776,7 +2693,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2787,7 +2704,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>74</v>
@@ -2796,16 +2713,16 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2856,71 +2773,71 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2946,63 +2863,63 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3010,7 +2927,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>84</v>
@@ -3022,27 +2939,25 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -3060,13 +2975,11 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -3084,10 +2997,10 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>84</v>
@@ -3096,13 +3009,13 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3116,7 +3029,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3127,7 +3040,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -3136,16 +3049,16 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3172,13 +3085,11 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -3196,13 +3107,13 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -3214,10 +3125,10 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>74</v>
@@ -3228,11 +3139,9 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
@@ -3241,7 +3150,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -3250,18 +3159,20 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3286,13 +3197,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -3310,7 +3219,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3319,16 +3228,16 @@
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3342,11 +3251,9 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
@@ -3355,7 +3262,7 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -3364,16 +3271,16 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3400,13 +3307,11 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -3424,7 +3329,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3433,22 +3338,22 @@
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3456,11 +3361,9 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3478,16 +3381,16 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3514,13 +3417,11 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3538,75 +3439,71 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3654,25 +3551,25 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3686,11 +3583,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3706,18 +3603,20 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3754,19 +3653,19 @@
         <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3778,27 +3677,27 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3806,33 +3705,35 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3856,37 +3757,35 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3895,26 +3794,28 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3935,16 +3836,20 @@
         <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3968,11 +3873,13 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3990,13 +3897,13 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -4008,7 +3915,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -4017,14 +3924,16 @@
         <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4033,7 +3942,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -4045,16 +3954,20 @@
         <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4078,11 +3991,13 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -4100,7 +4015,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4118,23 +4033,25 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4143,7 +4060,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4155,18 +4072,20 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4190,11 +4109,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -4227,10 +4148,10 @@
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4239,12 +4160,12 @@
         <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4255,7 +4176,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -4267,16 +4188,20 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4300,11 +4225,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -4322,13 +4249,13 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -4340,21 +4267,21 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4365,7 +4292,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -4377,13 +4304,13 @@
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4412,9 +4339,11 @@
       <c r="W25" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X25" s="2"/>
+      <c r="X25" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4432,13 +4361,13 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4447,24 +4376,24 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4475,7 +4404,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -4487,13 +4416,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4544,25 +4473,25 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4576,18 +4505,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4599,16 +4528,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4646,51 +4575,51 @@
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4701,7 +4630,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4710,23 +4639,19 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4762,23 +4687,25 @@
         <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4790,25 +4717,23 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4817,7 +4742,7 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4826,23 +4751,19 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4866,13 +4787,13 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4890,7 +4811,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4905,28 +4826,26 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4947,20 +4866,16 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4984,13 +4899,13 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -5008,13 +4923,13 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -5023,28 +4938,26 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5065,20 +4978,16 @@
         <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5102,13 +5011,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -5126,13 +5035,13 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -5141,24 +5050,24 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>243</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5178,23 +5087,19 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5242,7 +5147,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5257,24 +5162,24 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5294,16 +5199,16 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5330,13 +5235,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5354,7 +5259,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5369,10 +5274,10 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5381,12 +5286,12 @@
         <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>269</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5397,7 +5302,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -5409,15 +5314,17 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5466,13 +5373,13 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -5481,13 +5388,13 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5498,7 +5405,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5521,16 +5428,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5580,7 +5487,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5595,24 +5502,24 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5638,10 +5545,10 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5692,7 +5599,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5710,25 +5617,25 @@
         <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5747,13 +5654,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5804,7 +5711,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5819,16 +5726,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5836,7 +5743,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5844,10 +5751,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -5856,16 +5763,16 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5916,39 +5823,39 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5968,16 +5875,16 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6028,7 +5935,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>197</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6040,38 +5947,38 @@
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>313</v>
+        <v>74</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>74</v>
@@ -6083,15 +5990,17 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -6140,28 +6049,28 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6172,11 +6081,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6189,22 +6098,26 @@
         <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>322</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6252,7 +6165,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6264,13 +6177,13 @@
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6284,7 +6197,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6295,7 +6208,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6304,19 +6217,19 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6342,13 +6255,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6366,13 +6279,13 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -6381,24 +6294,24 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>74</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6418,20 +6331,18 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>349</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6480,7 +6391,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6495,24 +6406,24 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>338</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6532,16 +6443,16 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6568,13 +6479,13 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6592,7 +6503,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6610,32 +6521,32 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>74</v>
@@ -6644,16 +6555,16 @@
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6680,13 +6591,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6704,13 +6615,13 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
@@ -6719,24 +6630,24 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>74</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6744,11 +6655,11 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6759,13 +6670,13 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6816,39 +6727,39 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>356</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>360</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6859,7 +6770,7 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
@@ -6871,15 +6782,17 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>140</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6928,25 +6841,25 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>142</v>
+        <v>375</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>143</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6955,913 +6868,7 @@
         <v>74</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK51" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="389">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T08:30:53+00:00</t>
+    <t>2021-12-15T12:34:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1031,6 +1031,10 @@
   </si>
   <si>
     <t>List of participants involved in the appointment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:resolve().actor}
+</t>
   </si>
   <si>
     <t>app-1:Either the type or actor on the participant SHALL be specified {type.exists() or actor.exists()}
@@ -1181,6 +1185,30 @@
   </si>
   <si>
     <t>Participation period of the actor.</t>
+  </si>
+  <si>
+    <t>helsepersonell</t>
+  </si>
+  <si>
+    <t>Appointments should contain Practitioner og PractitionerRole reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>pasient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>sted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|HealthcareService)
+</t>
   </si>
   <si>
     <t>Appointment.requestedPeriod</t>
@@ -1494,7 +1522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1504,7 +1532,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.66796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.35546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5811,16 +5839,14 @@
         <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>324</v>
@@ -5835,27 +5861,27 @@
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5967,7 +5993,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6081,11 +6107,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6107,10 +6133,10 @@
         <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>133</v>
@@ -6165,7 +6191,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6197,7 +6223,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6223,13 +6249,13 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6258,10 +6284,10 @@
         <v>217</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6279,7 +6305,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6297,7 +6323,7 @@
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>168</v>
@@ -6306,12 +6332,12 @@
         <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6334,13 +6360,13 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6391,7 +6417,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6409,21 +6435,21 @@
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6449,10 +6475,10 @@
         <v>104</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6482,10 +6508,10 @@
         <v>154</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6503,7 +6529,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6521,10 +6547,10 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6535,7 +6561,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6561,10 +6587,10 @@
         <v>104</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6594,10 +6620,10 @@
         <v>154</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6615,7 +6641,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>84</v>
@@ -6633,21 +6659,21 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6670,13 +6696,13 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6727,7 +6753,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6759,9 +6785,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6782,17 +6810,15 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6841,10 +6867,10 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6853,22 +6879,3076 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AJ51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>380</v>
+      <c r="AK74" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="391">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T12:34:15+00:00</t>
+    <t>2021-12-15T12:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1190,7 +1190,7 @@
     <t>helsepersonell</t>
   </si>
   <si>
-    <t>Appointments should contain Practitioner og PractitionerRole reference</t>
+    <t>Appointments should contain information regarding the pracitioner involved. The Appointment.actor should contain a Practitioner or PractitionerRole reference</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
@@ -1200,11 +1200,17 @@
     <t>pasient</t>
   </si>
   <si>
+    <t>Appointments should contain information regarding the patient involved. The Appointment.actor should contain  a Patient reference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
     <t>sted</t>
+  </si>
+  <si>
+    <t>Appointments should contain information regarding where the appointment is executed. The Appointment.actor should contain a Location or HealthcareService reference</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Location|HealthcareService)
@@ -1541,7 +1547,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="157.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="157.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7831,7 +7837,7 @@
         <v>325</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>327</v>
@@ -8396,7 +8402,7 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>351</v>
@@ -8824,7 +8830,7 @@
         <v>324</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>74</v>
@@ -8849,7 +8855,7 @@
         <v>325</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>327</v>
@@ -9414,7 +9420,7 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>351</v>
@@ -9839,7 +9845,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9865,13 +9871,13 @@
         <v>373</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9921,7 +9927,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9939,7 +9945,7 @@
         <v>275</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -9948,7 +9954,7 @@
         <v>74</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T12:39:33+00:00</t>
+    <t>2021-12-15T13:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1187,7 +1187,7 @@
     <t>Participation period of the actor.</t>
   </si>
   <si>
-    <t>helsepersonell</t>
+    <t>practitioner</t>
   </si>
   <si>
     <t>Appointments should contain information regarding the pracitioner involved. The Appointment.actor should contain a Practitioner or PractitionerRole reference</t>
@@ -1197,7 +1197,7 @@
 </t>
   </si>
   <si>
-    <t>pasient</t>
+    <t>patient</t>
   </si>
   <si>
     <t>Appointments should contain information regarding the patient involved. The Appointment.actor should contain  a Patient reference</t>
@@ -1207,7 +1207,7 @@
 </t>
   </si>
   <si>
-    <t>sted</t>
+    <t>location</t>
   </si>
   <si>
     <t>Appointments should contain information regarding where the appointment is executed. The Appointment.actor should contain a Location or HealthcareService reference</t>
@@ -1538,7 +1538,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.66796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.35546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T13:42:09+00:00</t>
+    <t>2021-12-16T21:16:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T21:16:53+00:00</t>
+    <t>2021-12-17T09:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:07:58+00:00</t>
+    <t>2021-12-17T09:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:19:31+00:00</t>
+    <t>2021-12-17T12:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T12:06:07+00:00</t>
+    <t>2022-01-10T12:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T12:40:13+00:00</t>
+    <t>2022-01-11T09:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T09:12:02+00:00</t>
+    <t>2022-01-17T12:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T12:49:07+00:00</t>
+    <t>2022-02-09T19:12:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-09T19:12:46+00:00</t>
+    <t>2022-02-16T10:05:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$50</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="406">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:16:27+00:00</t>
+    <t>2024-05-29T11:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Appointment information. Defined by HL7 Norway. This profile identifies a set of minimum expectations for an Appointment resource when creating, searching and retrieving compositions by defining which coding system(s) must be present when using this profile. The basis profile is open, but derived profiles should close down the information elements according to specification relevant to the use-case.</t>
+    <t>Base profile for Norwegian Appointment information. Defined by HL7 Norway. This profile identifies a set of minimum expectations for an Appointment resource when creating, searching and retrieving compositions by defining which coding system(s) can be present when using this profile. The basis profile is open, but derived profiles should close down the information elements according to specification relevant to the use-case.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -259,6 +262,10 @@
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
+    <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
+app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -415,33 +422,89 @@
     <t>Appointment.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Appointment.extension:virtualService</t>
+  </si>
+  <si>
+    <t>virtualService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-virtual-service}
+</t>
+  </si>
+  <si>
+    <t>Virtual Service</t>
+  </si>
+  <si>
+    <t>The VirtualService structure defines details of a virtual communication capability, such as a web conference call.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Appointment.extension:group</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-group}
+</t>
+  </si>
+  <si>
+    <t>no-basis-group</t>
+  </si>
+  <si>
+    <t>The appointment is a group session.</t>
+  </si>
+  <si>
+    <t>Appointment.extension:partOf</t>
+  </si>
+  <si>
+    <t>partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-partof}
+</t>
+  </si>
+  <si>
+    <t>no-basis-partof</t>
+  </si>
+  <si>
+    <t>This basis extension mirrors the Encounter.partOF-attribute. The partOf-attribute enables booking of a set of related appointments with a set of sub-appointments being linked to the main appointment in the same way as encounters are being linked. A larger appointment of which this particular appointment is a component or step.</t>
+  </si>
+  <si>
+    <t>Appointment.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Appointment.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -449,6 +512,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -636,17 +702,13 @@
     <t>Appointment.appointmentType.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -659,10 +721,10 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
+    <t>Recomended code systems for no-basis-Appointment.</t>
+  </si>
+  <si>
+    <t>Recomended code systems for no-basis-Appointment. The recomended code systems might not be suficient for defining appointment type and in an implemented profile - some other coding might be needed.</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
@@ -675,9 +737,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -696,7 +755,7 @@
     <t>Volven 8406</t>
   </si>
   <si>
-    <t>extensible</t>
+    <t>Omsorgsnivå (OID=8406).</t>
   </si>
   <si>
     <t>Volven</t>
@@ -714,6 +773,9 @@
     <t>Volven 8432</t>
   </si>
   <si>
+    <t>Kontakttype (OID=8432)</t>
+  </si>
+  <si>
     <t>urn:oid:2.16.578.1.12.4.1.1.8432</t>
   </si>
   <si>
@@ -724,6 +786,9 @@
   </si>
   <si>
     <t>Volven 7617</t>
+  </si>
+  <si>
+    <t>Timetype innbyggerportal (OID=7617)</t>
   </si>
   <si>
     <t>urn:oid:2.16.578.1.12.4.1.1.7617</t>
@@ -1047,10 +1112,6 @@
   </si>
   <si>
     <t>List of participants involved in the appointment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:resolve().actor}
-</t>
   </si>
   <si>
     <t>app-1:Either the type or actor on the participant SHALL be specified {type.exists() or actor.exists()}
@@ -1108,6 +1169,9 @@
 This value SHALL be the same when creating an AppointmentResponse so that they can be matched, and subsequently update the Appointment.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Role of participant in encounter.</t>
   </si>
   <si>
@@ -1201,117 +1265,6 @@
   </si>
   <si>
     <t>Participation period of the actor.</t>
-  </si>
-  <si>
-    <t>Appointment.participant:practitioner</t>
-  </si>
-  <si>
-    <t>practitioner</t>
-  </si>
-  <si>
-    <t>Appointments should contain information regarding the pracitioner involved. The Appointment.actor should contain a Practitioner or PractitionerRole reference</t>
-  </si>
-  <si>
-    <t>Appointment.participant:practitioner.id</t>
-  </si>
-  <si>
-    <t>Appointment.participant:practitioner.extension</t>
-  </si>
-  <si>
-    <t>Appointment.participant:practitioner.modifierExtension</t>
-  </si>
-  <si>
-    <t>Appointment.participant:practitioner.type</t>
-  </si>
-  <si>
-    <t>Appointment.participant:practitioner.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
-</t>
-  </si>
-  <si>
-    <t>Appointment.participant:practitioner.required</t>
-  </si>
-  <si>
-    <t>Appointment.participant:practitioner.status</t>
-  </si>
-  <si>
-    <t>Appointment.participant:practitioner.period</t>
-  </si>
-  <si>
-    <t>Appointment.participant:patient</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>Appointments should contain information regarding the patient involved. The Appointment.actor should contain  a Patient reference</t>
-  </si>
-  <si>
-    <t>Appointment.participant:patient.id</t>
-  </si>
-  <si>
-    <t>Appointment.participant:patient.extension</t>
-  </si>
-  <si>
-    <t>Appointment.participant:patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>Appointment.participant:patient.type</t>
-  </si>
-  <si>
-    <t>Appointment.participant:patient.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>Appointment.participant:patient.required</t>
-  </si>
-  <si>
-    <t>Appointment.participant:patient.status</t>
-  </si>
-  <si>
-    <t>Appointment.participant:patient.period</t>
-  </si>
-  <si>
-    <t>Appointment.participant:location</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Appointments should contain information regarding where the appointment is executed. The Appointment.actor should contain a Location or HealthcareService reference</t>
-  </si>
-  <si>
-    <t>Appointment.participant:location.id</t>
-  </si>
-  <si>
-    <t>Appointment.participant:location.extension</t>
-  </si>
-  <si>
-    <t>Appointment.participant:location.modifierExtension</t>
-  </si>
-  <si>
-    <t>Appointment.participant:location.type</t>
-  </si>
-  <si>
-    <t>Appointment.participant:location.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location|HealthcareService)
-</t>
-  </si>
-  <si>
-    <t>Appointment.participant:location.required</t>
-  </si>
-  <si>
-    <t>Appointment.participant:location.status</t>
-  </si>
-  <si>
-    <t>Appointment.participant:location.period</t>
   </si>
   <si>
     <t>Appointment.requestedPeriod</t>
@@ -1452,13 +1405,28 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1625,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1634,9 +1602,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.95703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.04296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.9921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1801,7 +1769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
@@ -1898,16 +1866,16 @@
         <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>75</v>
@@ -1916,12 +1884,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1932,7 +1900,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1941,19 +1909,19 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2003,13 +1971,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -2033,12 +2001,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2049,7 +2017,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -2058,16 +2026,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2118,19 +2086,19 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -2148,12 +2116,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2164,28 +2132,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2235,19 +2203,19 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -2265,12 +2233,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2281,7 +2249,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -2293,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2328,13 +2296,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2352,19 +2320,19 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -2382,23 +2350,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -2410,16 +2378,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2469,25 +2437,25 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2499,16 +2467,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2527,16 +2495,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2586,7 +2554,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2604,7 +2572,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2616,16 +2584,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2652,9 +2620,7 @@
       <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2691,19 +2657,17 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2715,13 +2679,13 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2733,16 +2697,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2752,29 +2718,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2822,7 +2784,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2831,16 +2793,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2852,14 +2814,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2868,25 +2832,25 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2937,7 +2901,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2946,56 +2910,58 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="B12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>152</v>
@@ -3003,9 +2969,7 @@
       <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -3030,13 +2994,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -3054,74 +3018,78 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -3145,11 +3113,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -3167,25 +3137,25 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3197,12 +3167,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3222,16 +3192,16 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3258,11 +3228,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3280,7 +3252,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3292,30 +3264,30 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3323,31 +3295,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3373,59 +3345,61 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="Z15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>75</v>
-      </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>182</v>
       </c>
@@ -3441,7 +3415,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3450,16 +3424,16 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3486,11 +3460,11 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3514,36 +3488,36 @@
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3554,7 +3528,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3563,16 +3537,16 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3599,11 +3573,11 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3621,37 +3595,37 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -3667,7 +3641,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3676,18 +3650,20 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3712,13 +3688,11 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3736,25 +3710,25 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>75</v>
@@ -3766,16 +3740,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3791,20 +3765,18 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3829,31 +3801,29 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3865,30 +3835,30 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3899,7 +3869,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3908,10 +3878,10 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>208</v>
@@ -3919,12 +3889,8 @@
       <c r="M20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3948,68 +3914,66 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF20" t="s" s="2">
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
@@ -4018,7 +3982,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -4027,23 +3991,19 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -4067,13 +4027,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -4091,25 +4051,25 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4118,28 +4078,26 @@
         <v>75</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>216</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4148,23 +4106,21 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4188,31 +4144,31 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4224,13 +4180,13 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4239,19 +4195,17 @@
         <v>75</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>216</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>75</v>
       </c>
@@ -4260,7 +4214,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4269,22 +4223,22 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4309,31 +4263,29 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4345,13 +4297,13 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>75</v>
@@ -4360,17 +4312,19 @@
         <v>75</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4379,7 +4333,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4388,22 +4342,22 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4428,13 +4382,13 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -4452,25 +4406,25 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>75</v>
@@ -4479,17 +4433,19 @@
         <v>75</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4498,7 +4454,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4507,19 +4463,23 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4543,13 +4503,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4567,7 +4527,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4579,32 +4539,34 @@
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO25" t="s" s="2">
+      <c r="B26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>246</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4613,7 +4575,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4622,19 +4584,23 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4658,13 +4624,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4682,7 +4648,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4694,13 +4660,13 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -4709,15 +4675,15 @@
         <v>75</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4728,7 +4694,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4737,21 +4703,23 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4799,42 +4767,42 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4845,7 +4813,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4854,16 +4822,16 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4890,13 +4858,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4914,42 +4882,42 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AM28" t="s" s="2">
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AN28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4972,13 +4940,13 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5029,7 +4997,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5041,30 +5009,30 @@
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5075,7 +5043,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -5084,18 +5052,20 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5144,42 +5114,42 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL30" t="s" s="2">
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5190,7 +5160,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5199,16 +5169,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5259,42 +5229,42 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5305,7 +5275,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5317,13 +5287,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5374,42 +5344,42 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5420,7 +5390,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5429,16 +5399,16 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5489,42 +5459,42 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AO33" t="s" s="2">
-        <v>75</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5535,7 +5505,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -5544,10 +5514,10 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>305</v>
@@ -5555,9 +5525,7 @@
       <c r="M34" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5606,37 +5574,37 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>75</v>
-      </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>311</v>
       </c>
@@ -5652,7 +5620,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5664,17 +5632,15 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>314</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5729,36 +5695,36 @@
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5769,7 +5735,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5781,7 +5747,7 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>319</v>
@@ -5838,37 +5804,37 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>267</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>322</v>
       </c>
@@ -5877,14 +5843,14 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5896,15 +5862,17 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5959,13 +5927,13 @@
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>327</v>
@@ -5974,7 +5942,7 @@
         <v>328</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>75</v>
@@ -5983,12 +5951,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5996,10 +5964,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -6011,7 +5979,7 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>331</v>
@@ -6019,7 +5987,9 @@
       <c r="M38" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6056,52 +6026,54 @@
         <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AN38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6112,7 +6084,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -6124,13 +6096,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>197</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6181,46 +6153,46 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>169</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>75</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6239,17 +6211,15 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6298,7 +6268,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>205</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6310,13 +6280,13 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -6328,20 +6298,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6350,26 +6320,22 @@
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6417,10 +6383,10 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
@@ -6429,30 +6395,30 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>136</v>
+        <v>352</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6463,7 +6429,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6472,20 +6438,18 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6510,13 +6474,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6534,53 +6498,53 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>352</v>
+        <v>188</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>353</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6589,18 +6553,20 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6649,74 +6615,78 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>354</v>
+        <v>223</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6740,13 +6710,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>366</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6764,28 +6734,28 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>129</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>368</v>
+        <v>75</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>75</v>
@@ -6794,12 +6764,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6807,10 +6777,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6819,18 +6789,20 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6855,66 +6827,66 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>155</v>
+        <v>368</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z45" t="s" s="2">
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AA45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6925,7 +6897,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6934,16 +6906,16 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6994,46 +6966,44 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AM46" t="s" s="2">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>75</v>
+        <v>379</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>75</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>75</v>
       </c>
@@ -7042,7 +7012,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -7051,16 +7021,16 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7087,13 +7057,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>75</v>
+        <v>385</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -7111,42 +7081,42 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>334</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>338</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7154,10 +7124,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -7166,16 +7136,16 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>198</v>
+        <v>390</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7202,13 +7172,13 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>391</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -7226,53 +7196,53 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>199</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>169</v>
+        <v>393</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>75</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7284,17 +7254,15 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -7343,25 +7311,25 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>205</v>
+        <v>396</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7373,16 +7341,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7395,26 +7363,24 @@
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7462,7 +7428,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7474,13 +7440,13 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>128</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7489,2794 +7455,28 @@
         <v>75</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>422</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO50">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI49">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:15:19+00:00</t>
+    <t>2024-05-29T11:27:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:27:53+00:00</t>
+    <t>2024-05-29T11:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$50</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -33,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:39:51+00:00</t>
+    <t>2025-03-27T21:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1412,21 +1409,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1769,7 +1751,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
@@ -1884,7 +1866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2001,7 +1983,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2116,7 +2098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2233,7 +2215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2350,7 +2332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2467,7 +2449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2584,7 +2566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2697,7 +2679,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -2718,7 +2700,7 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>75</v>
@@ -2814,7 +2796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -2835,7 +2817,7 @@
         <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>75</v>
@@ -2931,7 +2913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -2952,7 +2934,7 @@
         <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>75</v>
@@ -3048,7 +3030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>154</v>
       </c>
@@ -3167,7 +3149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>161</v>
       </c>
@@ -3282,7 +3264,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>170</v>
       </c>
@@ -3399,7 +3381,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>182</v>
       </c>
@@ -3512,7 +3494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>189</v>
       </c>
@@ -3625,7 +3607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -3740,7 +3722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>201</v>
       </c>
@@ -3853,7 +3835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>207</v>
       </c>
@@ -3966,7 +3948,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>214</v>
       </c>
@@ -4081,7 +4063,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>219</v>
       </c>
@@ -4198,7 +4180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>224</v>
       </c>
@@ -4315,7 +4297,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>234</v>
       </c>
@@ -4436,7 +4418,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>240</v>
       </c>
@@ -4557,7 +4539,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>245</v>
       </c>
@@ -4678,7 +4660,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>250</v>
       </c>
@@ -4797,7 +4779,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>258</v>
       </c>
@@ -4912,7 +4894,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>266</v>
       </c>
@@ -5027,7 +5009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>272</v>
       </c>
@@ -5144,7 +5126,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>281</v>
       </c>
@@ -5259,7 +5241,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>287</v>
       </c>
@@ -5374,7 +5356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>295</v>
       </c>
@@ -5489,7 +5471,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>304</v>
       </c>
@@ -5604,7 +5586,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>311</v>
       </c>
@@ -5719,7 +5701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>317</v>
       </c>
@@ -5834,7 +5816,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>322</v>
       </c>
@@ -5951,7 +5933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>330</v>
       </c>
@@ -6068,7 +6050,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>337</v>
       </c>
@@ -6183,7 +6165,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>341</v>
       </c>
@@ -6298,7 +6280,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>348</v>
       </c>
@@ -6413,7 +6395,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>357</v>
       </c>
@@ -6528,7 +6510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>358</v>
       </c>
@@ -6645,7 +6627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>359</v>
       </c>
@@ -6764,7 +6746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>364</v>
       </c>
@@ -6881,7 +6863,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>373</v>
       </c>
@@ -6996,7 +6978,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>381</v>
       </c>
@@ -7111,7 +7093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>388</v>
       </c>
@@ -7226,7 +7208,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>396</v>
       </c>
@@ -7341,7 +7323,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>400</v>
       </c>
@@ -7459,24 +7441,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO50">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI49">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T21:37:45+00:00</t>
+    <t>2025-10-16T20:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -599,7 +599,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason|4.0.1</t>
   </si>
   <si>
     <t>n/a</t>
@@ -614,7 +614,7 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+    <t>http://hl7.org/fhir/ValueSet/service-category|4.0.1</t>
   </si>
   <si>
     <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
@@ -635,7 +635,7 @@
     <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -650,7 +650,7 @@
     <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>.performer.AssignedPerson.code</t>
@@ -827,7 +827,7 @@
     <t>The Reason for the appointment to take place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -842,7 +842,7 @@
     <t>Appointment.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -909,7 +909,7 @@
     <t>Appointment.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1002,7 +1002,7 @@
     <t>Appointment.slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Slot)
+    <t xml:space="preserve">Reference(Slot|4.0.1)
 </t>
   </si>
   <si>
@@ -1082,7 +1082,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
     <t>Role of participant in encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>(performer | reusableDevice | subject | location).@typeCode</t>
@@ -1184,7 +1184,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Device|HealthcareService|Location)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1|HealthcareService|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1584,17 +1584,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.04296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1603,27 +1603,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.28515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.0859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="34.3125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="110.08203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="155.20703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.55859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.41796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="133.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T20:19:25+00:00</t>
+    <t>2025-10-16T20:37:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T20:37:15+00:00</t>
+    <t>2025-10-17T19:50:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T19:50:01+00:00</t>
+    <t>2025-10-17T19:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T19:53:44+00:00</t>
+    <t>2025-10-17T20:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:15:52+00:00</t>
+    <t>2025-10-17T20:41:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:41:05+00:00</t>
+    <t>2025-10-17T20:48:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Appointment.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Appointment</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-Appointment</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:48:12+00:00</t>
+    <t>2025-10-31T06:29:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-virtual-service}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-virtual-service}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-group}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-group}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-partof}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-partof}
 </t>
   </si>
   <si>
